--- a/gerbers/JLCPCB-SMT-C64-Composite-Modulator-bottom-pos.xlsx
+++ b/gerbers/JLCPCB-SMT-C64-Composite-Modulator-bottom-pos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KiCad\Projets\C64-Composite-Modulator\gerbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{247067F3-F697-41AF-BF8D-AA335CC45FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C11F61-366E-4DE4-ABBB-9EFB41C3D63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="3260" windowWidth="28800" windowHeight="15370" xr2:uid="{0EF171E1-D0D6-4A3A-A7F4-B339639FE1E1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{0EF171E1-D0D6-4A3A-A7F4-B339639FE1E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -677,7 +677,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
